--- a/data/Contreras_2016.xlsx
+++ b/data/Contreras_2016.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/migueltenorio/Documents/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/migueltenorio/Documents/GitHub/CIT-SimBiology-Toolbox/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC3F902-151C-9A4E-BE45-837B69EB875D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7659582E-FB74-3C47-9CB1-89468C39F0A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1960" yWindow="1960" windowWidth="26840" windowHeight="15540" xr2:uid="{B5BC270A-1E9F-5746-829E-1FB2B0EBE80E}"/>
   </bookViews>
   <sheets>
     <sheet name="B16F10" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -406,7 +406,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G9"/>
+      <selection activeCell="B12" sqref="B12:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -466,7 +466,7 @@
         <v>0.17000000178813934</v>
       </c>
       <c r="B3">
-        <v>9.0361446142196655E-2</v>
+        <v>0.90361446142196655</v>
       </c>
       <c r="C3">
         <v>9.0361442565917965E-2</v>
@@ -489,7 +489,7 @@
         <v>0.5</v>
       </c>
       <c r="B4">
-        <v>0.3132530152797699</v>
+        <v>3.132530152797699</v>
       </c>
       <c r="C4">
         <v>0.31325302124023435</v>
@@ -512,7 +512,7 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>0.40361446142196655</v>
+        <v>4.0361446142196655</v>
       </c>
       <c r="C5">
         <v>0.20980813598632814</v>
@@ -535,7 +535,7 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>0.60240960121154785</v>
+        <v>6.0240960121154785</v>
       </c>
       <c r="C6">
         <v>0.6024096069335938</v>
@@ -558,7 +558,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.71807229518890381</v>
+        <v>7.1807229518890381</v>
       </c>
       <c r="C7">
         <v>0.18970643615722657</v>
@@ -581,7 +581,7 @@
         <v>24</v>
       </c>
       <c r="B8">
-        <v>0.44277110695838928</v>
+        <v>4.4277110695838928</v>
       </c>
       <c r="C8">
         <v>0.14512113952636718</v>
@@ -604,7 +604,7 @@
         <v>72</v>
       </c>
       <c r="B9">
-        <v>9.6385538578033447E-2</v>
+        <v>0.96385538578033447</v>
       </c>
       <c r="C9">
         <v>9.6385543823242187E-2</v>

--- a/data/Contreras_2016.xlsx
+++ b/data/Contreras_2016.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/migueltenorio/Documents/GitHub/CIT-SimBiology-Toolbox/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7659582E-FB74-3C47-9CB1-89468C39F0A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB881C5-6575-DF4C-84BF-CE5DFE6B13F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="1960" windowWidth="26840" windowHeight="15540" xr2:uid="{B5BC270A-1E9F-5746-829E-1FB2B0EBE80E}"/>
+    <workbookView xWindow="1800" yWindow="1320" windowWidth="26840" windowHeight="15540" xr2:uid="{B5BC270A-1E9F-5746-829E-1FB2B0EBE80E}"/>
   </bookViews>
   <sheets>
     <sheet name="B16F10" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
   <si>
     <t>Time[hour(s)]</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>4.5_mgkg</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Contreras_4.5_mgkg</t>
   </si>
 </sst>
 </file>
@@ -403,19 +409,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CAD3375-CFDE-494A-BD79-ABE8DE88FB76}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B19"/>
+      <selection activeCell="H3" sqref="H3:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,8 +446,11 @@
       <c r="G1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -460,8 +472,11 @@
       <c r="G2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.17000000178813934</v>
       </c>
@@ -483,8 +498,11 @@
       <c r="G3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.5</v>
       </c>
@@ -506,8 +524,11 @@
       <c r="G4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -529,8 +550,11 @@
       <c r="G5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -552,8 +576,11 @@
       <c r="G6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>8</v>
       </c>
@@ -575,8 +602,11 @@
       <c r="G7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>24</v>
       </c>
@@ -598,8 +628,11 @@
       <c r="G8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>72</v>
       </c>
@@ -620,6 +653,9 @@
       </c>
       <c r="G9" t="s">
         <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data/Contreras_2016.xlsx
+++ b/data/Contreras_2016.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/migueltenorio/Documents/GitHub/CIT-SimBiology-Toolbox/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB881C5-6575-DF4C-84BF-CE5DFE6B13F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13398779-B0A1-524D-80AF-C8C19B04947A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1320" windowWidth="26840" windowHeight="15540" xr2:uid="{B5BC270A-1E9F-5746-829E-1FB2B0EBE80E}"/>
+    <workbookView xWindow="1440" yWindow="2460" windowWidth="26840" windowHeight="15540" xr2:uid="{B5BC270A-1E9F-5746-829E-1FB2B0EBE80E}"/>
   </bookViews>
   <sheets>
     <sheet name="B16F10" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Time[hour(s)]</t>
   </si>
@@ -58,6 +60,15 @@
   </si>
   <si>
     <t>Contreras_4.5_mgkg</t>
+  </si>
+  <si>
+    <t>SD[%ID/g]</t>
+  </si>
+  <si>
+    <t>Blood.antiPDL1[%ID/g]</t>
+  </si>
+  <si>
+    <t>Tumor.antiPDL1_free[%ID/g]</t>
   </si>
 </sst>
 </file>
@@ -409,22 +420,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CAD3375-CFDE-494A-BD79-ABE8DE88FB76}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" customWidth="1"/>
     <col min="4" max="4" width="21.6640625" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="6" max="6" width="22.5" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,16 +456,28 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -467,16 +494,29 @@
         <v>0</v>
       </c>
       <c r="F2">
+        <f>B2/(4.5*0.022)</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>4.5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.17000000178813934</v>
       </c>
@@ -493,16 +533,32 @@
         <v>5.3003091812133789</v>
       </c>
       <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
+        <f>B3/(4.5*0.022)/1000*100</f>
+        <v>0.91274188022420866</v>
+      </c>
+      <c r="G3">
+        <f>C3*1/(4.5*0.022)/1000*100</f>
+        <v>9.1274184410018153E-2</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:I3" si="0">D3*1/(4.5*0.022)/1000*100</f>
+        <v>39.805464311079497</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>5.3538476577912926</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" t="s">
+      <c r="L3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.5</v>
       </c>
@@ -519,16 +575,32 @@
         <v>3.6111111640930176</v>
       </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
+        <f t="shared" ref="F4:F9" si="1">B4/(4.5*0.022)/1000*100</f>
+        <v>3.1641718715128277</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G9" si="2">C4*1/(4.5*0.022)/1000*100</f>
+        <v>0.31641719317195394</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H9" si="3">D4*1/(4.5*0.022)/1000*100</f>
+        <v>40.544332639135497</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I9" si="4">E4*1/(4.5*0.022)/1000*100</f>
+        <v>3.6475870344373917</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
         <v>6</v>
       </c>
-      <c r="H4" t="s">
+      <c r="L4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -545,16 +617,32 @@
         <v>3.0259509086608887</v>
       </c>
       <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
+        <f t="shared" si="1"/>
+        <v>4.0769137517370355</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>0.21192741008720017</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>38.627011848218515</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>3.0565160693544331</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
         <v>6</v>
       </c>
-      <c r="H5" t="s">
+      <c r="L5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -571,16 +659,32 @@
         <v>5.1439609527587891</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
+        <f t="shared" si="1"/>
+        <v>6.0849454667833118</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>0.60849455245817563</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>36.242047704831521</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>5.1959201543018079</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
         <v>6</v>
       </c>
-      <c r="H6" t="s">
+      <c r="L6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>8</v>
       </c>
@@ -597,16 +701,32 @@
         <v>6.7750954627990723</v>
       </c>
       <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
+        <f t="shared" si="1"/>
+        <v>7.2532555069586255</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>0.19162266278507736</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>24.905135414817117</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>6.8435307705041133</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
         <v>6</v>
       </c>
-      <c r="H7" t="s">
+      <c r="L7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>24</v>
       </c>
@@ -623,16 +743,32 @@
         <v>5.8039698600769043</v>
       </c>
       <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
+        <f t="shared" si="1"/>
+        <v>4.4724354238221142</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>0.14658700962259313</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>18.999519733467487</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>5.8625958182594999</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
         <v>6</v>
       </c>
-      <c r="H8" t="s">
+      <c r="L8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>72</v>
       </c>
@@ -649,12 +785,28 @@
         <v>5.092592716217041</v>
       </c>
       <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
+        <f t="shared" si="1"/>
+        <v>0.97359129876801476</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>9.7359135174992117E-2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>6.9678263230757276</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>5.1440330466838802</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
         <v>6</v>
       </c>
-      <c r="H9" t="s">
+      <c r="L9" t="s">
         <v>8</v>
       </c>
     </row>

--- a/data/Contreras_2016.xlsx
+++ b/data/Contreras_2016.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/migueltenorio/Documents/GitHub/CIT-SimBiology-Toolbox/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13398779-B0A1-524D-80AF-C8C19B04947A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25392A0C-C7A6-4245-87FA-9D86C20DC4A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="2460" windowWidth="26840" windowHeight="15540" xr2:uid="{B5BC270A-1E9F-5746-829E-1FB2B0EBE80E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{B5BC270A-1E9F-5746-829E-1FB2B0EBE80E}"/>
   </bookViews>
   <sheets>
     <sheet name="B16F10" sheetId="1" r:id="rId1"/>
@@ -59,9 +59,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Contreras_4.5_mgkg</t>
-  </si>
-  <si>
     <t>SD[%ID/g]</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>Tumor.antiPDL1_free[%ID/g]</t>
+  </si>
+  <si>
+    <t>B16OVA_Contreras_4.5_mgkg</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="L3" sqref="L3:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -456,16 +456,16 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
       <c r="I1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
         <v>5</v>
@@ -513,7 +513,7 @@
         <v>6</v>
       </c>
       <c r="L2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -555,7 +555,7 @@
         <v>6</v>
       </c>
       <c r="L3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -597,7 +597,7 @@
         <v>6</v>
       </c>
       <c r="L4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -639,7 +639,7 @@
         <v>6</v>
       </c>
       <c r="L5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -681,7 +681,7 @@
         <v>6</v>
       </c>
       <c r="L6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -723,7 +723,7 @@
         <v>6</v>
       </c>
       <c r="L7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -765,7 +765,7 @@
         <v>6</v>
       </c>
       <c r="L8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -807,7 +807,7 @@
         <v>6</v>
       </c>
       <c r="L9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/Contreras_2016.xlsx
+++ b/data/Contreras_2016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/migueltenorio/Documents/GitHub/CIT-SimBiology-Toolbox/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25392A0C-C7A6-4245-87FA-9D86C20DC4A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071051DA-E92D-994F-BC92-60D3FF2317D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{B5BC270A-1E9F-5746-829E-1FB2B0EBE80E}"/>
   </bookViews>
@@ -62,13 +62,13 @@
     <t>SD[%ID/g]</t>
   </si>
   <si>
-    <t>Blood.antiPDL1[%ID/g]</t>
-  </si>
-  <si>
     <t>Tumor.antiPDL1_free[%ID/g]</t>
   </si>
   <si>
     <t>B16OVA_Contreras_4.5_mgkg</t>
+  </si>
+  <si>
+    <t>Blood.antiPDL1_free[%ID/g]</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:L9"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -456,13 +456,13 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
         <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
@@ -513,7 +513,7 @@
         <v>6</v>
       </c>
       <c r="L2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -555,7 +555,7 @@
         <v>6</v>
       </c>
       <c r="L3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -597,7 +597,7 @@
         <v>6</v>
       </c>
       <c r="L4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -639,7 +639,7 @@
         <v>6</v>
       </c>
       <c r="L5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -681,7 +681,7 @@
         <v>6</v>
       </c>
       <c r="L6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -723,7 +723,7 @@
         <v>6</v>
       </c>
       <c r="L7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -765,7 +765,7 @@
         <v>6</v>
       </c>
       <c r="L8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -807,7 +807,7 @@
         <v>6</v>
       </c>
       <c r="L9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/Contreras_2016.xlsx
+++ b/data/Contreras_2016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/migueltenorio/Documents/GitHub/CIT-SimBiology-Toolbox/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071051DA-E92D-994F-BC92-60D3FF2317D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA5F207-79C0-8E41-AE5B-161CB75AED48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{B5BC270A-1E9F-5746-829E-1FB2B0EBE80E}"/>
   </bookViews>
@@ -423,7 +423,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H3" sqref="H3:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -434,7 +434,7 @@
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
     <col min="6" max="6" width="22.5" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
   </cols>
@@ -541,11 +541,11 @@
         <v>9.1274184410018153E-2</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:I3" si="0">D3*1/(4.5*0.022)/1000*100</f>
-        <v>39.805464311079497</v>
+        <f>D3/0.1/1000*100</f>
+        <v>39.4074096679687</v>
       </c>
       <c r="I3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H3:I3" si="0">E3*1/(4.5*0.022)/1000*100</f>
         <v>5.3538476577912926</v>
       </c>
       <c r="J3">
@@ -583,8 +583,8 @@
         <v>0.31641719317195394</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H9" si="3">D4*1/(4.5*0.022)/1000*100</f>
-        <v>40.544332639135497</v>
+        <f t="shared" ref="H4:H9" si="3">D4/0.1/1000*100</f>
+        <v>40.138889312744141</v>
       </c>
       <c r="I4">
         <f t="shared" ref="I4:I9" si="4">E4*1/(4.5*0.022)/1000*100</f>
@@ -626,7 +626,7 @@
       </c>
       <c r="H5">
         <f t="shared" si="3"/>
-        <v>38.627011848218515</v>
+        <v>38.240741729736328</v>
       </c>
       <c r="I5">
         <f t="shared" si="4"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="H6">
         <f t="shared" si="3"/>
-        <v>36.242047704831521</v>
+        <v>35.879627227783203</v>
       </c>
       <c r="I6">
         <f t="shared" si="4"/>
@@ -710,7 +710,7 @@
       </c>
       <c r="H7">
         <f t="shared" si="3"/>
-        <v>24.905135414817117</v>
+        <v>24.656084060668945</v>
       </c>
       <c r="I7">
         <f t="shared" si="4"/>
@@ -752,7 +752,7 @@
       </c>
       <c r="H8">
         <f t="shared" si="3"/>
-        <v>18.999519733467487</v>
+        <v>18.809524536132812</v>
       </c>
       <c r="I8">
         <f t="shared" si="4"/>
@@ -794,7 +794,7 @@
       </c>
       <c r="H9">
         <f t="shared" si="3"/>
-        <v>6.9678263230757276</v>
+        <v>6.8981480598449707</v>
       </c>
       <c r="I9">
         <f t="shared" si="4"/>

--- a/data/Contreras_2016.xlsx
+++ b/data/Contreras_2016.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/migueltenorio/Documents/GitHub/CIT-SimBiology-Toolbox/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA5F207-79C0-8E41-AE5B-161CB75AED48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D58A68-505D-1C49-98FD-CDC5A0428A02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{B5BC270A-1E9F-5746-829E-1FB2B0EBE80E}"/>
+    <workbookView xWindow="1120" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{B5BC270A-1E9F-5746-829E-1FB2B0EBE80E}"/>
   </bookViews>
   <sheets>
     <sheet name="B16F10" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
   <si>
     <t>Time[hour(s)]</t>
   </si>
@@ -68,7 +68,10 @@
     <t>B16OVA_Contreras_4.5_mgkg</t>
   </si>
   <si>
-    <t>Blood.antiPDL1_free[%ID/g]</t>
+    <t>Dose2[mg/kg]</t>
+  </si>
+  <si>
+    <t>Blood.antiPDL1[%ID/g]</t>
   </si>
 </sst>
 </file>
@@ -104,8 +107,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CAD3375-CFDE-494A-BD79-ABE8DE88FB76}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -434,12 +438,12 @@
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
     <col min="6" max="6" width="22.5" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" customWidth="1"/>
+    <col min="8" max="8" width="26.5" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -462,7 +466,7 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
@@ -471,346 +475,374 @@
         <v>5</v>
       </c>
       <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
         <f>B2/(4.5*0.022)</f>
         <v>0</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
         <v>0</v>
       </c>
       <c r="J2">
         <v>4.5</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
         <v>6</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.17000000178813934</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>0.90361446142196655</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>9.0361442565917965E-2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>39.4074096679687</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>5.3003091812133789</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <f>B3/(4.5*0.022)/1000*100</f>
         <v>0.91274188022420866</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <f>C3*1/(4.5*0.022)/1000*100</f>
         <v>9.1274184410018153E-2</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <f>D3/0.1/1000*100</f>
         <v>39.4074096679687</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="H3:I3" si="0">E3*1/(4.5*0.022)/1000*100</f>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3" si="0">E3*1/(4.5*0.022)/1000*100</f>
         <v>5.3538476577912926</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
         <v>6</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>3.132530152797699</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>0.31325302124023435</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>40.138889312744141</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>3.6111111640930176</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <f t="shared" ref="F4:F9" si="1">B4/(4.5*0.022)/1000*100</f>
         <v>3.1641718715128277</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <f t="shared" ref="G4:G9" si="2">C4*1/(4.5*0.022)/1000*100</f>
         <v>0.31641719317195394</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <f t="shared" ref="H4:H9" si="3">D4/0.1/1000*100</f>
         <v>40.138889312744141</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <f t="shared" ref="I4:I9" si="4">E4*1/(4.5*0.022)/1000*100</f>
         <v>3.6475870344373917</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
         <v>6</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>4.0361446142196655</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>0.20980813598632814</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>38.240741729736328</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>3.0259509086608887</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <f t="shared" si="1"/>
         <v>4.0769137517370355</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <f t="shared" si="2"/>
         <v>0.21192741008720017</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <f t="shared" si="3"/>
         <v>38.240741729736328</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <f t="shared" si="4"/>
         <v>3.0565160693544331</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
         <v>6</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>6.0240960121154785</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>0.6024096069335938</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>35.879627227783203</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>5.1439609527587891</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <f t="shared" si="1"/>
         <v>6.0849454667833118</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <f t="shared" si="2"/>
         <v>0.60849455245817563</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <f t="shared" si="3"/>
         <v>35.879627227783203</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <f t="shared" si="4"/>
         <v>5.1959201543018079</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
         <v>6</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>7.1807229518890381</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>0.18970643615722657</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>24.656084060668945</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>6.7750954627990723</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <f t="shared" si="1"/>
         <v>7.2532555069586255</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <f t="shared" si="2"/>
         <v>0.19162266278507736</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <f t="shared" si="3"/>
         <v>24.656084060668945</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <f t="shared" si="4"/>
         <v>6.8435307705041133</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>24</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>4.4277110695838928</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>0.14512113952636718</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>18.809524536132812</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>5.8039698600769043</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <f t="shared" si="1"/>
         <v>4.4724354238221142</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <f t="shared" si="2"/>
         <v>0.14658700962259313</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <f t="shared" si="3"/>
         <v>18.809524536132812</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <f t="shared" si="4"/>
         <v>5.8625958182594999</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
         <v>6</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>72</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>0.96385538578033447</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>9.6385543823242187E-2</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>6.8981480598449707</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>5.092592716217041</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <f t="shared" si="1"/>
         <v>0.97359129876801476</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <f t="shared" si="2"/>
         <v>9.7359135174992117E-2</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <f t="shared" si="3"/>
         <v>6.8981480598449707</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <f t="shared" si="4"/>
         <v>5.1440330466838802</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
         <v>6</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>